--- a/output/20221109/tables/wald_test_hh_noeffort.xlsx
+++ b/output/20221109/tables/wald_test_hh_noeffort.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="13">
   <si>
     <t>Outcome</t>
   </si>

--- a/output/20221109/tables/wald_test_hh_noeffort.xlsx
+++ b/output/20221109/tables/wald_test_hh_noeffort.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="13">
   <si>
     <t>Outcome</t>
   </si>
